--- a/biology/Zoologie/Edward_Turner_Bennett/Edward_Turner_Bennett.xlsx
+++ b/biology/Zoologie/Edward_Turner_Bennett/Edward_Turner_Bennett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Turner Bennett est un médecin et un zoologiste britannique, né le 6 janvier 1797 à Hackney près de Londres et mort le 21 août 1836 à Londres.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études de médecine, il se consacre à l’histoire naturelle. Il est le frère du botaniste John Joseph Bennett[1].
-Il participe en 1822 à la création d’un club d’entomologie à Londres. Celui-ci est transformé en société de zoologie en relation avec la Linnean Society of London. Elle deviendra le point de départ, en 1826, de la Zoological Society of London[1].
-Il en devient son premier vice-secrétaire puis son secrétaire de 1831 à 1836. Il meurt prématurément à 39 ans[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études de médecine, il se consacre à l’histoire naturelle. Il est le frère du botaniste John Joseph Bennett.
+Il participe en 1822 à la création d’un club d’entomologie à Londres. Celui-ci est transformé en société de zoologie en relation avec la Linnean Society of London. Elle deviendra le point de départ, en 1826, de la Zoological Society of London.
+Il en devient son premier vice-secrétaire puis son secrétaire de 1831 à 1836. Il meurt prématurément à 39 ans.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Taxons nommés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En hommage[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En hommage :
 Abrocoma bennettii Waterhouse, 1837
 Gazella bennettii (Sykes, 1831)
 Cynogale de Bennett (Cynogale bennettii Gray, 1837)
@@ -588,11 +604,13 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1829 : The Tower menagerie : comprising the natural history of the animals contained in that establishment; with anecdotes of their characters and history[3] (Printed for R. Jennings, Londres).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1829 : The Tower menagerie : comprising the natural history of the animals contained in that establishment; with anecdotes of their characters and history (Printed for R. Jennings, Londres).
 1830 : Class Pisces. p. 686–694. In: Memoir of the Life and Public Services of Sir Thomas Stamford Raffles… By his Widow [Lady Stamford Raffles]. Memoir Life Raffles, p. 701 pp.
-1831 : The gardens and menagerie of the Zoological society[4] (deux volumes, Société zoologique de Londres).
+1831 : The gardens and menagerie of the Zoological society (deux volumes, Société zoologique de Londres).
 1832 : Observations on a collection of fishes from the Mauritius, presented by Mr. Telfair, with characters of new genera and species. Proc. Zool. Soc. Lond. 1830-31 (pt 1), p. 165-169
 1833 : Characters of new species from the Mauritius. Proc. Zool. Soc. Lond. 1833 (pt 1), p. 32
 1833 : On the Chinchillidae, a Family of Herbivorous Rodentia, and on a New Genus Referrible to It. Transactions of the Zoological Society of London vol. 1,  p. 35–64</t>
